--- a/Assembly/PMS_PY/Making_Rings/Results/Nematic_Ordering/OrderParameter.xlsx
+++ b/Assembly/PMS_PY/Making_Rings/Results/Nematic_Ordering/OrderParameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Assembly\PMS_PY\Making_Rings\Results\Nematic_Ordering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE48AD-17B3-4F3D-8A15-A80ACC951643}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33802ABD-BEE7-490D-824D-5E4008E43321}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{211C6E72-366F-4E95-AF7C-62C697C08599}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Order Parameters for Different Lengths and Densities of Rigid Rods</t>
   </si>
@@ -54,13 +54,49 @@
   </si>
   <si>
     <t>(radius 2)</t>
+  </si>
+  <si>
+    <t>0 to &lt;0.2</t>
+  </si>
+  <si>
+    <t>0.2 to &lt; 0.4</t>
+  </si>
+  <si>
+    <t>0.4 to &lt; 0.6</t>
+  </si>
+  <si>
+    <t>0.6 to &lt; 0.8</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>0.8 to 1</t>
+  </si>
+  <si>
+    <t>Order Parameters from Monte Carlo Simulation</t>
+  </si>
+  <si>
+    <t>Steps in Random Walk</t>
+  </si>
+  <si>
+    <t>Number of Random Walks</t>
+  </si>
+  <si>
+    <t>Rod Radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell radius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell length </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +119,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +164,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -161,17 +250,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -182,6 +470,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,91 +835,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD02A7-5590-46DB-8547-DA57B47C768B}">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="I1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -595,351 +960,825 @@
       <c r="AM5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>20</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>30</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>40</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>50</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>60</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>70</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>80</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>90</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>100</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>110</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>120</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>130</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>140</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>150</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>160</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>170</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>180</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>190</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>200</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>220</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <v>240</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <v>260</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <v>280</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <v>300</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="5">
         <v>320</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <v>340</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="5">
         <v>360</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <v>380</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="5">
         <v>400</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="5">
         <v>420</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="5">
         <v>440</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <v>460</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="5">
         <v>480</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <v>500</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <v>520</v>
       </c>
-      <c r="AN6" s="11"/>
+      <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="13">
         <v>0.48699999999999999</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="24">
         <v>0.38200000000000001</v>
       </c>
       <c r="E7" s="13">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="24">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="24">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="24">
         <v>0.32900000000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="24">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="24">
         <v>0.36399999999999999</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="24">
         <v>0.36199999999999999</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="24">
         <v>0.32800000000000001</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="24">
         <v>0.32800000000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="24">
         <v>0.32600000000000001</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="24">
         <v>0.34799999999999998</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="24">
         <v>0.35699999999999998</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="24">
         <v>0.36299999999999999</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="24">
         <v>0.36399999999999999</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="24">
         <v>0.371</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="24">
         <v>0.36799999999999999</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="24">
         <v>0.36099999999999999</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="24">
         <v>0.35</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="24">
         <v>0.35499999999999998</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="24">
         <v>0.34799999999999998</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="24">
         <v>0.33800000000000002</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="24">
         <v>0.32200000000000001</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="24">
         <v>0.318</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="24">
         <v>0.315</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="24">
         <v>0.318</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="24">
         <v>0.314</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="24">
         <v>0.29599999999999999</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="24">
         <v>0.29499999999999998</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="24">
         <v>0.29699999999999999</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="24">
         <v>0.29899999999999999</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="24">
         <v>0.27900000000000003</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="24">
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="24">
         <v>0.377</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="13">
         <v>0.48699999999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="24">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="24">
         <v>0.308</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="24">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="24">
         <v>0.29499999999999998</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="24">
         <v>0.27600000000000002</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="24">
         <v>0.309</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="24">
         <v>0.33100000000000002</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="24">
         <v>0.318</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="24">
         <v>0.32800000000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="24">
         <v>0.312</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="24">
         <v>0.28599999999999998</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="24">
         <v>0.27900000000000003</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="24">
         <v>0.27800000000000002</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="24">
         <v>0.26700000000000002</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="24">
         <v>0.25900000000000001</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="24">
         <v>0.26500000000000001</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="24">
         <v>0.25800000000000001</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="24">
         <v>0.247</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="24">
         <v>0.25700000000000001</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="24">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:40" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="17" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="18" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="19" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="22" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="23" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="24" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="25" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="26" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="27" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="29" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="30" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="31" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="32" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="33" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="34" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="35" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+    </row>
+    <row r="9" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.436</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.438</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.316</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+    </row>
+    <row r="10" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10" s="14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.105</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+    </row>
+    <row r="11" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.495</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+    </row>
+    <row r="12" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.753</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+    </row>
+    <row r="13" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.91</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+    </row>
+    <row r="14" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:40" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="32">
+        <v>10</v>
+      </c>
+      <c r="C24" s="32">
+        <v>50</v>
+      </c>
+      <c r="D24" s="32">
+        <v>100</v>
+      </c>
+      <c r="E24" s="32">
+        <v>150</v>
+      </c>
+      <c r="F24" s="32">
+        <v>200</v>
+      </c>
+      <c r="G24" s="32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>25</v>
+      </c>
+      <c r="B25" s="27">
+        <v>0.23</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>50</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>100</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>200</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>300</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>400</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>500</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="33" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="34" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="35" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="36" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B5:W5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
